--- a/EP_ASP_NP_YBE_600s.xlsx
+++ b/EP_ASP_NP_YBE_600s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C974983-D063-944A-8D4F-FBE23121DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCDDF5-D97A-584A-AE88-2663DDDAA41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="337">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -576,27 +576,6 @@
   </si>
   <si>
     <t>bombProblems/btuc_bomb_090.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale1.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale2.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale3.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale4.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale5.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale7.sh</t>
-  </si>
-  <si>
-    <t>yaleProblems/eiter_yale8.sh</t>
   </si>
   <si>
     <t>yaleProblems/yale1.sh</t>
@@ -1430,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4961,19 +4940,22 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>3.6589999999999998E-2</v>
+        <v>3.4381000000000002E-2</v>
       </c>
       <c r="C177">
-        <v>3.6818999999999998E-2</v>
+        <v>3.3216000000000002E-2</v>
       </c>
       <c r="D177">
-        <v>3.6589999999999998E-2</v>
+        <f t="shared" ref="D177:D183" si="0">MIN($B177,$C177)</f>
+        <v>3.3216000000000002E-2</v>
       </c>
       <c r="E177">
-        <v>3.6704500000000001E-2</v>
+        <f t="shared" ref="E177:E183" si="1">MEDIAN($B177,$C177)</f>
+        <v>3.3798500000000002E-2</v>
       </c>
       <c r="F177">
-        <v>3.6818999999999998E-2</v>
+        <f t="shared" ref="F177:F183" si="2">MAX($B177,$C177)</f>
+        <v>3.4381000000000002E-2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4981,19 +4963,22 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>3.2626000000000002E-2</v>
+        <v>3.3903000000000003E-2</v>
       </c>
       <c r="C178">
-        <v>3.1244000000000001E-2</v>
+        <v>3.2992E-2</v>
       </c>
       <c r="D178">
-        <v>3.1244000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2992E-2</v>
       </c>
       <c r="E178">
-        <v>3.1935000000000012E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3447500000000005E-2</v>
       </c>
       <c r="F178">
-        <v>3.2626000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3903000000000003E-2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5001,19 +4986,22 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>3.6823000000000002E-2</v>
+        <v>3.6206000000000002E-2</v>
       </c>
       <c r="C179">
-        <v>3.4361999999999997E-2</v>
+        <v>3.4442E-2</v>
       </c>
       <c r="D179">
-        <v>3.4361999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4442E-2</v>
       </c>
       <c r="E179">
-        <v>3.5592499999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.5324000000000001E-2</v>
       </c>
       <c r="F179">
-        <v>3.6823000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.6206000000000002E-2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5021,19 +5009,22 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>3.4936000000000002E-2</v>
+        <v>3.3165E-2</v>
       </c>
       <c r="C180">
-        <v>3.6991999999999997E-2</v>
+        <v>3.5261000000000001E-2</v>
       </c>
       <c r="D180">
-        <v>3.4936000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.3165E-2</v>
       </c>
       <c r="E180">
-        <v>3.5964000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4213E-2</v>
       </c>
       <c r="F180">
-        <v>3.6991999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5261000000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5041,19 +5032,22 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>100.569</v>
+        <v>88.000699999999995</v>
       </c>
       <c r="C181">
-        <v>104.19499999999999</v>
+        <v>106.55200000000001</v>
       </c>
       <c r="D181">
-        <v>100.569</v>
+        <f t="shared" si="0"/>
+        <v>88.000699999999995</v>
       </c>
       <c r="E181">
-        <v>102.38200000000001</v>
+        <f t="shared" si="1"/>
+        <v>97.276350000000008</v>
       </c>
       <c r="F181">
-        <v>104.19499999999999</v>
+        <f t="shared" si="2"/>
+        <v>106.55200000000001</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5061,19 +5055,22 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>120.05500000000001</v>
+        <v>111.614</v>
       </c>
       <c r="C182">
-        <v>120.637</v>
+        <v>118.742</v>
       </c>
       <c r="D182">
-        <v>120.05500000000001</v>
+        <f t="shared" si="0"/>
+        <v>111.614</v>
       </c>
       <c r="E182">
-        <v>120.346</v>
+        <f t="shared" si="1"/>
+        <v>115.178</v>
       </c>
       <c r="F182">
-        <v>120.637</v>
+        <f t="shared" si="2"/>
+        <v>118.742</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5081,19 +5078,22 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>5.1093E-2</v>
+        <v>4.8902000000000001E-2</v>
       </c>
       <c r="C183">
-        <v>5.4052000000000003E-2</v>
+        <v>4.6371000000000002E-2</v>
       </c>
       <c r="D183">
-        <v>5.1093E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6371000000000002E-2</v>
       </c>
       <c r="E183">
-        <v>5.2572500000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7636499999999998E-2</v>
       </c>
       <c r="F183">
-        <v>5.4052000000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8902000000000001E-2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -5101,19 +5101,19 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>3.7254000000000002E-2</v>
+        <v>581.61699999999996</v>
       </c>
       <c r="C184">
-        <v>3.5020999999999997E-2</v>
+        <v>581.96100000000001</v>
       </c>
       <c r="D184">
-        <v>3.5020999999999997E-2</v>
+        <v>581.61699999999996</v>
       </c>
       <c r="E184">
-        <v>3.6137500000000003E-2</v>
+        <v>581.78899999999999</v>
       </c>
       <c r="F184">
-        <v>3.7254000000000002E-2</v>
+        <v>581.96100000000001</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,19 +5121,19 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>3.4409000000000002E-2</v>
+        <v>600</v>
       </c>
       <c r="C185">
-        <v>3.4299999999999997E-2</v>
+        <v>600</v>
       </c>
       <c r="D185">
-        <v>3.4299999999999997E-2</v>
+        <v>600</v>
       </c>
       <c r="E185">
-        <v>3.4354500000000003E-2</v>
+        <v>600</v>
       </c>
       <c r="F185">
-        <v>3.4409000000000002E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -5141,19 +5141,19 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>3.5581000000000002E-2</v>
+        <v>600</v>
       </c>
       <c r="C186">
-        <v>3.5823000000000001E-2</v>
+        <v>600</v>
       </c>
       <c r="D186">
-        <v>3.5581000000000002E-2</v>
+        <v>600</v>
       </c>
       <c r="E186">
-        <v>3.5701999999999998E-2</v>
+        <v>600</v>
       </c>
       <c r="F186">
-        <v>3.5823000000000001E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -5161,19 +5161,19 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>3.5769000000000002E-2</v>
+        <v>600</v>
       </c>
       <c r="C187">
-        <v>3.3408E-2</v>
+        <v>600</v>
       </c>
       <c r="D187">
-        <v>3.3408E-2</v>
+        <v>600</v>
       </c>
       <c r="E187">
-        <v>3.4588500000000001E-2</v>
+        <v>600</v>
       </c>
       <c r="F187">
-        <v>3.5769000000000002E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -5181,19 +5181,19 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>98.974000000000004</v>
+        <v>600</v>
       </c>
       <c r="C188">
-        <v>103.179</v>
+        <v>600</v>
       </c>
       <c r="D188">
-        <v>98.974000000000004</v>
+        <v>600</v>
       </c>
       <c r="E188">
-        <v>101.0765</v>
+        <v>600</v>
       </c>
       <c r="F188">
-        <v>103.179</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -5201,19 +5201,19 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>121.49</v>
+        <v>600</v>
       </c>
       <c r="C189">
-        <v>118.249</v>
+        <v>600</v>
       </c>
       <c r="D189">
-        <v>118.249</v>
+        <v>600</v>
       </c>
       <c r="E189">
-        <v>119.8695</v>
+        <v>600</v>
       </c>
       <c r="F189">
-        <v>121.49</v>
+        <v>600</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -5221,19 +5221,19 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>5.2776999999999998E-2</v>
+        <v>600</v>
       </c>
       <c r="C190">
-        <v>5.0471000000000002E-2</v>
+        <v>600</v>
       </c>
       <c r="D190">
-        <v>5.0471000000000002E-2</v>
+        <v>600</v>
       </c>
       <c r="E190">
-        <v>5.1624000000000003E-2</v>
+        <v>600</v>
       </c>
       <c r="F190">
-        <v>5.2776999999999998E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -5241,19 +5241,19 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>581.61699999999996</v>
+        <v>600</v>
       </c>
       <c r="C191">
-        <v>581.96100000000001</v>
+        <v>600</v>
       </c>
       <c r="D191">
-        <v>581.61699999999996</v>
+        <v>600</v>
       </c>
       <c r="E191">
-        <v>581.78899999999999</v>
+        <v>600</v>
       </c>
       <c r="F191">
-        <v>581.96100000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -5601,19 +5601,19 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>600</v>
+        <v>8.7416999999999995E-2</v>
       </c>
       <c r="C209">
-        <v>600</v>
+        <v>9.4461000000000003E-2</v>
       </c>
       <c r="D209">
-        <v>600</v>
+        <v>8.7416999999999995E-2</v>
       </c>
       <c r="E209">
-        <v>600</v>
+        <v>9.0938999999999992E-2</v>
       </c>
       <c r="F209">
-        <v>600</v>
+        <v>9.4461000000000003E-2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,19 +5741,19 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>8.7416999999999995E-2</v>
+        <v>600</v>
       </c>
       <c r="C216">
-        <v>9.4461000000000003E-2</v>
+        <v>600</v>
       </c>
       <c r="D216">
-        <v>8.7416999999999995E-2</v>
+        <v>600</v>
       </c>
       <c r="E216">
-        <v>9.0938999999999992E-2</v>
+        <v>600</v>
       </c>
       <c r="F216">
-        <v>9.4461000000000003E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5901,19 +5901,19 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>600</v>
+        <v>9.9135000000000001E-2</v>
       </c>
       <c r="C224">
-        <v>600</v>
+        <v>8.8856000000000004E-2</v>
       </c>
       <c r="D224">
-        <v>600</v>
+        <v>8.8856000000000004E-2</v>
       </c>
       <c r="E224">
-        <v>600</v>
+        <v>9.399550000000001E-2</v>
       </c>
       <c r="F224">
-        <v>600</v>
+        <v>9.9135000000000001E-2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -6041,19 +6041,19 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>9.9135000000000001E-2</v>
+        <v>600</v>
       </c>
       <c r="C231">
-        <v>8.8856000000000004E-2</v>
+        <v>600</v>
       </c>
       <c r="D231">
-        <v>8.8856000000000004E-2</v>
+        <v>600</v>
       </c>
       <c r="E231">
-        <v>9.399550000000001E-2</v>
+        <v>600</v>
       </c>
       <c r="F231">
-        <v>9.9135000000000001E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -6101,19 +6101,19 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>600</v>
+        <v>9.2369000000000007E-2</v>
       </c>
       <c r="C234">
-        <v>600</v>
+        <v>9.2262999999999998E-2</v>
       </c>
       <c r="D234">
-        <v>600</v>
+        <v>9.2262999999999998E-2</v>
       </c>
       <c r="E234">
-        <v>600</v>
+        <v>9.2316000000000009E-2</v>
       </c>
       <c r="F234">
-        <v>600</v>
+        <v>9.2369000000000007E-2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -6241,19 +6241,19 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>9.2369000000000007E-2</v>
+        <v>9.1481000000000007E-2</v>
       </c>
       <c r="C241">
-        <v>9.2262999999999998E-2</v>
+        <v>9.0447E-2</v>
       </c>
       <c r="D241">
-        <v>9.2262999999999998E-2</v>
+        <v>9.0447E-2</v>
       </c>
       <c r="E241">
-        <v>9.2316000000000009E-2</v>
+        <v>9.0964000000000003E-2</v>
       </c>
       <c r="F241">
-        <v>9.2369000000000007E-2</v>
+        <v>9.1481000000000007E-2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -6341,19 +6341,19 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>600</v>
+        <v>0.115427</v>
       </c>
       <c r="C246">
-        <v>600</v>
+        <v>0.10237400000000001</v>
       </c>
       <c r="D246">
-        <v>600</v>
+        <v>0.10237400000000001</v>
       </c>
       <c r="E246">
-        <v>600</v>
+        <v>0.1089005</v>
       </c>
       <c r="F246">
-        <v>600</v>
+        <v>0.115427</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6381,19 +6381,19 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>9.1481000000000007E-2</v>
+        <v>600</v>
       </c>
       <c r="C248">
-        <v>9.0447E-2</v>
+        <v>600</v>
       </c>
       <c r="D248">
-        <v>9.0447E-2</v>
+        <v>600</v>
       </c>
       <c r="E248">
-        <v>9.0964000000000003E-2</v>
+        <v>600</v>
       </c>
       <c r="F248">
-        <v>9.1481000000000007E-2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6441,19 +6441,19 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>600</v>
+        <v>0.15545700000000001</v>
       </c>
       <c r="C251">
-        <v>600</v>
+        <v>0.15453800000000001</v>
       </c>
       <c r="D251">
-        <v>600</v>
+        <v>0.15453800000000001</v>
       </c>
       <c r="E251">
-        <v>600</v>
+        <v>0.15499750000000001</v>
       </c>
       <c r="F251">
-        <v>600</v>
+        <v>0.15545700000000001</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6481,19 +6481,19 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>0.115427</v>
+        <v>600</v>
       </c>
       <c r="C253">
-        <v>0.10237400000000001</v>
+        <v>600</v>
       </c>
       <c r="D253">
-        <v>0.10237400000000001</v>
+        <v>600</v>
       </c>
       <c r="E253">
-        <v>0.1089005</v>
+        <v>600</v>
       </c>
       <c r="F253">
-        <v>0.115427</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6521,19 +6521,19 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>600</v>
+        <v>0.18404000000000001</v>
       </c>
       <c r="C255">
-        <v>600</v>
+        <v>0.195607</v>
       </c>
       <c r="D255">
-        <v>600</v>
+        <v>0.18404000000000001</v>
       </c>
       <c r="E255">
-        <v>600</v>
+        <v>0.18982350000000001</v>
       </c>
       <c r="F255">
-        <v>600</v>
+        <v>0.195607</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6581,19 +6581,19 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>0.15545700000000001</v>
+        <v>600</v>
       </c>
       <c r="C258">
-        <v>0.15453800000000001</v>
+        <v>600</v>
       </c>
       <c r="D258">
-        <v>0.15453800000000001</v>
+        <v>600</v>
       </c>
       <c r="E258">
-        <v>0.15499750000000001</v>
+        <v>600</v>
       </c>
       <c r="F258">
-        <v>0.15545700000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6601,19 +6601,19 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>600</v>
+        <v>0.173067</v>
       </c>
       <c r="C259">
-        <v>600</v>
+        <v>0.191445</v>
       </c>
       <c r="D259">
-        <v>600</v>
+        <v>0.173067</v>
       </c>
       <c r="E259">
-        <v>600</v>
+        <v>0.182256</v>
       </c>
       <c r="F259">
-        <v>600</v>
+        <v>0.191445</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6661,19 +6661,19 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>0.18404000000000001</v>
+        <v>0.51227199999999995</v>
       </c>
       <c r="C262">
-        <v>0.195607</v>
+        <v>0.52935299999999996</v>
       </c>
       <c r="D262">
-        <v>0.18404000000000001</v>
+        <v>0.51227199999999995</v>
       </c>
       <c r="E262">
-        <v>0.18982350000000001</v>
+        <v>0.5208124999999999</v>
       </c>
       <c r="F262">
-        <v>0.195607</v>
+        <v>0.52935299999999996</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6721,19 +6721,19 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>600</v>
+        <v>3.1287600000000002</v>
       </c>
       <c r="C265">
-        <v>600</v>
+        <v>3.14141</v>
       </c>
       <c r="D265">
-        <v>600</v>
+        <v>3.1287600000000002</v>
       </c>
       <c r="E265">
-        <v>600</v>
+        <v>3.1350850000000001</v>
       </c>
       <c r="F265">
-        <v>600</v>
+        <v>3.14141</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -6741,19 +6741,19 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>0.173067</v>
+        <v>600</v>
       </c>
       <c r="C266">
-        <v>0.191445</v>
+        <v>600</v>
       </c>
       <c r="D266">
-        <v>0.173067</v>
+        <v>600</v>
       </c>
       <c r="E266">
-        <v>0.182256</v>
+        <v>600</v>
       </c>
       <c r="F266">
-        <v>0.191445</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -6781,19 +6781,19 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>600</v>
+        <v>1.7985199999999999</v>
       </c>
       <c r="C268">
-        <v>600</v>
+        <v>1.75579</v>
       </c>
       <c r="D268">
-        <v>600</v>
+        <v>1.75579</v>
       </c>
       <c r="E268">
-        <v>600</v>
+        <v>1.777155</v>
       </c>
       <c r="F268">
-        <v>600</v>
+        <v>1.7985199999999999</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -6801,19 +6801,19 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>0.51227199999999995</v>
+        <v>600</v>
       </c>
       <c r="C269">
-        <v>0.52935299999999996</v>
+        <v>600</v>
       </c>
       <c r="D269">
-        <v>0.51227199999999995</v>
+        <v>600</v>
       </c>
       <c r="E269">
-        <v>0.5208124999999999</v>
+        <v>600</v>
       </c>
       <c r="F269">
-        <v>0.52935299999999996</v>
+        <v>600</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -6841,19 +6841,19 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>600</v>
+        <v>2.35622</v>
       </c>
       <c r="C271">
-        <v>600</v>
+        <v>2.5055800000000001</v>
       </c>
       <c r="D271">
-        <v>600</v>
+        <v>2.35622</v>
       </c>
       <c r="E271">
-        <v>600</v>
+        <v>2.4308999999999998</v>
       </c>
       <c r="F271">
-        <v>600</v>
+        <v>2.5055800000000001</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -6861,19 +6861,19 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>3.1287600000000002</v>
+        <v>600</v>
       </c>
       <c r="C272">
-        <v>3.14141</v>
+        <v>600</v>
       </c>
       <c r="D272">
-        <v>3.1287600000000002</v>
+        <v>600</v>
       </c>
       <c r="E272">
-        <v>3.1350850000000001</v>
+        <v>600</v>
       </c>
       <c r="F272">
-        <v>3.14141</v>
+        <v>600</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -6881,19 +6881,19 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>600</v>
+        <v>474.46100000000001</v>
       </c>
       <c r="C273">
-        <v>600</v>
+        <v>487.17500000000001</v>
       </c>
       <c r="D273">
-        <v>600</v>
+        <v>474.46100000000001</v>
       </c>
       <c r="E273">
-        <v>600</v>
+        <v>480.81799999999998</v>
       </c>
       <c r="F273">
-        <v>600</v>
+        <v>487.17500000000001</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -6901,19 +6901,19 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>600</v>
+        <v>4.7027400000000004</v>
       </c>
       <c r="C274">
-        <v>600</v>
+        <v>4.4118500000000003</v>
       </c>
       <c r="D274">
-        <v>600</v>
+        <v>4.4118500000000003</v>
       </c>
       <c r="E274">
-        <v>600</v>
+        <v>4.5572949999999999</v>
       </c>
       <c r="F274">
-        <v>600</v>
+        <v>4.7027400000000004</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -6921,19 +6921,19 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>1.7985199999999999</v>
+        <v>600</v>
       </c>
       <c r="C275">
-        <v>1.75579</v>
+        <v>600</v>
       </c>
       <c r="D275">
-        <v>1.75579</v>
+        <v>600</v>
       </c>
       <c r="E275">
-        <v>1.777155</v>
+        <v>600</v>
       </c>
       <c r="F275">
-        <v>1.7985199999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -6941,19 +6941,19 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>600</v>
+        <v>37.764499999999998</v>
       </c>
       <c r="C276">
-        <v>600</v>
+        <v>37.280200000000001</v>
       </c>
       <c r="D276">
-        <v>600</v>
+        <v>37.280200000000001</v>
       </c>
       <c r="E276">
-        <v>600</v>
+        <v>37.522350000000003</v>
       </c>
       <c r="F276">
-        <v>600</v>
+        <v>37.764499999999998</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -6981,19 +6981,19 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>2.35622</v>
+        <v>557.33900000000006</v>
       </c>
       <c r="C278">
-        <v>2.5055800000000001</v>
+        <v>561.34199999999998</v>
       </c>
       <c r="D278">
-        <v>2.35622</v>
+        <v>557.33900000000006</v>
       </c>
       <c r="E278">
-        <v>2.4308999999999998</v>
+        <v>559.34050000000002</v>
       </c>
       <c r="F278">
-        <v>2.5055800000000001</v>
+        <v>561.34199999999998</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -7001,19 +7001,19 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>600</v>
+        <v>51.380600000000001</v>
       </c>
       <c r="C279">
-        <v>600</v>
+        <v>51.137900000000002</v>
       </c>
       <c r="D279">
-        <v>600</v>
+        <v>51.137900000000002</v>
       </c>
       <c r="E279">
-        <v>600</v>
+        <v>51.259250000000002</v>
       </c>
       <c r="F279">
-        <v>600</v>
+        <v>51.380600000000001</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -7021,19 +7021,19 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>474.46100000000001</v>
+        <v>559</v>
       </c>
       <c r="C280">
-        <v>487.17500000000001</v>
+        <v>559</v>
       </c>
       <c r="D280">
-        <v>474.46100000000001</v>
+        <v>559</v>
       </c>
       <c r="E280">
-        <v>480.81799999999998</v>
+        <v>559</v>
       </c>
       <c r="F280">
-        <v>487.17500000000001</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -7041,19 +7041,19 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>4.7027400000000004</v>
+        <v>306.07299999999998</v>
       </c>
       <c r="C281">
-        <v>4.4118500000000003</v>
+        <v>305.012</v>
       </c>
       <c r="D281">
-        <v>4.4118500000000003</v>
+        <v>305.012</v>
       </c>
       <c r="E281">
-        <v>4.5572949999999999</v>
+        <v>305.54250000000002</v>
       </c>
       <c r="F281">
-        <v>4.7027400000000004</v>
+        <v>306.07299999999998</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -7081,19 +7081,19 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>37.764499999999998</v>
+        <v>334.36099999999999</v>
       </c>
       <c r="C283">
-        <v>37.280200000000001</v>
+        <v>334.92099999999999</v>
       </c>
       <c r="D283">
-        <v>37.280200000000001</v>
+        <v>334.36099999999999</v>
       </c>
       <c r="E283">
-        <v>37.522350000000003</v>
+        <v>334.64100000000002</v>
       </c>
       <c r="F283">
-        <v>37.764499999999998</v>
+        <v>334.92099999999999</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -7121,19 +7121,19 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>557.33900000000006</v>
+        <v>350.89600000000002</v>
       </c>
       <c r="C285">
-        <v>561.34199999999998</v>
+        <v>354.01400000000001</v>
       </c>
       <c r="D285">
-        <v>557.33900000000006</v>
+        <v>350.89600000000002</v>
       </c>
       <c r="E285">
-        <v>559.34050000000002</v>
+        <v>352.45499999999998</v>
       </c>
       <c r="F285">
-        <v>561.34199999999998</v>
+        <v>354.01400000000001</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -7141,19 +7141,19 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>51.380600000000001</v>
+        <v>600</v>
       </c>
       <c r="C286">
-        <v>51.137900000000002</v>
+        <v>600</v>
       </c>
       <c r="D286">
-        <v>51.137900000000002</v>
+        <v>600</v>
       </c>
       <c r="E286">
-        <v>51.259250000000002</v>
+        <v>600</v>
       </c>
       <c r="F286">
-        <v>51.380600000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -7161,19 +7161,19 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="C287">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="D287">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="E287">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="F287">
-        <v>559</v>
+        <v>600</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -7181,19 +7181,19 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>306.07299999999998</v>
+        <v>359.41</v>
       </c>
       <c r="C288">
-        <v>305.012</v>
+        <v>358.86099999999999</v>
       </c>
       <c r="D288">
-        <v>305.012</v>
+        <v>358.86099999999999</v>
       </c>
       <c r="E288">
-        <v>305.54250000000002</v>
+        <v>359.13549999999998</v>
       </c>
       <c r="F288">
-        <v>306.07299999999998</v>
+        <v>359.41</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -7221,19 +7221,19 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>334.36099999999999</v>
+        <v>389.19400000000002</v>
       </c>
       <c r="C290">
-        <v>334.92099999999999</v>
+        <v>386.649</v>
       </c>
       <c r="D290">
-        <v>334.36099999999999</v>
+        <v>386.649</v>
       </c>
       <c r="E290">
-        <v>334.64100000000002</v>
+        <v>387.92149999999998</v>
       </c>
       <c r="F290">
-        <v>334.92099999999999</v>
+        <v>389.19400000000002</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -7261,19 +7261,19 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>350.89600000000002</v>
+        <v>413.31400000000002</v>
       </c>
       <c r="C292">
-        <v>354.01400000000001</v>
+        <v>411.85700000000003</v>
       </c>
       <c r="D292">
-        <v>350.89600000000002</v>
+        <v>411.85700000000003</v>
       </c>
       <c r="E292">
-        <v>352.45499999999998</v>
+        <v>412.58550000000002</v>
       </c>
       <c r="F292">
-        <v>354.01400000000001</v>
+        <v>413.31400000000002</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -7301,19 +7301,19 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>600</v>
+        <v>409.30900000000003</v>
       </c>
       <c r="C294">
-        <v>600</v>
+        <v>409.58300000000003</v>
       </c>
       <c r="D294">
-        <v>600</v>
+        <v>409.30900000000003</v>
       </c>
       <c r="E294">
-        <v>600</v>
+        <v>409.44600000000003</v>
       </c>
       <c r="F294">
-        <v>600</v>
+        <v>409.58300000000003</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -7321,19 +7321,19 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>359.41</v>
+        <v>439.13799999999998</v>
       </c>
       <c r="C295">
-        <v>358.86099999999999</v>
+        <v>441.589</v>
       </c>
       <c r="D295">
-        <v>358.86099999999999</v>
+        <v>439.13799999999998</v>
       </c>
       <c r="E295">
-        <v>359.13549999999998</v>
+        <v>440.36349999999999</v>
       </c>
       <c r="F295">
-        <v>359.41</v>
+        <v>441.589</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -7361,19 +7361,19 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>389.19400000000002</v>
+        <v>478.827</v>
       </c>
       <c r="C297">
-        <v>386.649</v>
+        <v>470.89299999999997</v>
       </c>
       <c r="D297">
-        <v>386.649</v>
+        <v>470.89299999999997</v>
       </c>
       <c r="E297">
-        <v>387.92149999999998</v>
+        <v>474.86</v>
       </c>
       <c r="F297">
-        <v>389.19400000000002</v>
+        <v>478.827</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -7401,19 +7401,19 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>413.31400000000002</v>
+        <v>488.80700000000002</v>
       </c>
       <c r="C299">
-        <v>411.85700000000003</v>
+        <v>490.40800000000002</v>
       </c>
       <c r="D299">
-        <v>411.85700000000003</v>
+        <v>488.80700000000002</v>
       </c>
       <c r="E299">
-        <v>412.58550000000002</v>
+        <v>489.60750000000002</v>
       </c>
       <c r="F299">
-        <v>413.31400000000002</v>
+        <v>490.40800000000002</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -7441,19 +7441,19 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>409.30900000000003</v>
+        <v>600</v>
       </c>
       <c r="C301">
-        <v>409.58300000000003</v>
+        <v>600</v>
       </c>
       <c r="D301">
-        <v>409.30900000000003</v>
+        <v>600</v>
       </c>
       <c r="E301">
-        <v>409.44600000000003</v>
+        <v>600</v>
       </c>
       <c r="F301">
-        <v>409.58300000000003</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -7461,19 +7461,19 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>439.13799999999998</v>
+        <v>600</v>
       </c>
       <c r="C302">
-        <v>441.589</v>
+        <v>600</v>
       </c>
       <c r="D302">
-        <v>439.13799999999998</v>
+        <v>600</v>
       </c>
       <c r="E302">
-        <v>440.36349999999999</v>
+        <v>600</v>
       </c>
       <c r="F302">
-        <v>441.589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -7501,19 +7501,19 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>478.827</v>
+        <v>600</v>
       </c>
       <c r="C304">
-        <v>470.89299999999997</v>
+        <v>600</v>
       </c>
       <c r="D304">
-        <v>470.89299999999997</v>
+        <v>600</v>
       </c>
       <c r="E304">
-        <v>474.86</v>
+        <v>600</v>
       </c>
       <c r="F304">
-        <v>478.827</v>
+        <v>600</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -7541,19 +7541,19 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>488.80700000000002</v>
+        <v>600</v>
       </c>
       <c r="C306">
-        <v>490.40800000000002</v>
+        <v>600</v>
       </c>
       <c r="D306">
-        <v>488.80700000000002</v>
+        <v>600</v>
       </c>
       <c r="E306">
-        <v>489.60750000000002</v>
+        <v>600</v>
       </c>
       <c r="F306">
-        <v>490.40800000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -7996,158 +7996,18 @@
         <v>600</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>333</v>
-      </c>
-      <c r="B329">
-        <v>600</v>
-      </c>
-      <c r="C329">
-        <v>600</v>
-      </c>
-      <c r="D329">
-        <v>600</v>
-      </c>
-      <c r="E329">
-        <v>600</v>
-      </c>
-      <c r="F329">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>334</v>
-      </c>
-      <c r="B330">
-        <v>600</v>
-      </c>
-      <c r="C330">
-        <v>600</v>
-      </c>
-      <c r="D330">
-        <v>600</v>
-      </c>
-      <c r="E330">
-        <v>600</v>
-      </c>
-      <c r="F330">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>335</v>
-      </c>
-      <c r="B331">
-        <v>600</v>
-      </c>
-      <c r="C331">
-        <v>600</v>
-      </c>
-      <c r="D331">
-        <v>600</v>
-      </c>
-      <c r="E331">
-        <v>600</v>
-      </c>
-      <c r="F331">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>336</v>
-      </c>
-      <c r="B332">
-        <v>600</v>
-      </c>
-      <c r="C332">
-        <v>600</v>
-      </c>
-      <c r="D332">
-        <v>600</v>
-      </c>
-      <c r="E332">
-        <v>600</v>
-      </c>
-      <c r="F332">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333">
-        <v>600</v>
-      </c>
-      <c r="C333">
-        <v>600</v>
-      </c>
-      <c r="D333">
-        <v>600</v>
-      </c>
-      <c r="E333">
-        <v>600</v>
-      </c>
-      <c r="F333">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334">
-        <v>600</v>
-      </c>
-      <c r="C334">
-        <v>600</v>
-      </c>
-      <c r="D334">
-        <v>600</v>
-      </c>
-      <c r="E334">
-        <v>600</v>
-      </c>
-      <c r="F334">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335">
-        <v>600</v>
-      </c>
-      <c r="C335">
-        <v>600</v>
-      </c>
-      <c r="D335">
-        <v>600</v>
-      </c>
-      <c r="E335">
-        <v>600</v>
-      </c>
-      <c r="F335">
-        <v>600</v>
-      </c>
-    </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B339">
-        <f>AVERAGE(E177:E190)</f>
-        <v>31.718512500000003</v>
+        <f>AVERAGE(E177:E183)</f>
+        <v>30.376967071428574</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B340">
         <f>AVERAGE(E3:E176)</f>
@@ -8156,20 +8016,20 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B341">
-        <f>AVERAGE(E191:E335)</f>
-        <v>523.10146578965521</v>
+        <f>AVERAGE(E173:E328)</f>
+        <v>502.9637904423077</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B342">
-        <f>AVERAGE(E3:E335)</f>
-        <v>475.61509273423428</v>
+        <f>AVERAGE(E3:E328)</f>
+        <v>485.1178082055215</v>
       </c>
     </row>
   </sheetData>
